--- a/results/pvalue_SIDER_all_pathway_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.209</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.551</t>
+          <t>8.356</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.455</t>
+          <t>7.355</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.496</t>
+          <t>7.029</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>2.526</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>10.087</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.755</t>
+          <t>9.762</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.539</t>
+          <t>10.547</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.087</t>
+          <t>8.094</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
